--- a/复成6600项目通讯接口数据表6月调试版2024717.xlsx
+++ b/复成6600项目通讯接口数据表6月调试版2024717.xlsx
@@ -2265,7 +2265,7 @@
   </sheetPr>
   <dimension ref="A1:F214"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="C90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="C92" workbookViewId="0">
       <selection activeCell="F101" sqref="F101"/>
     </sheetView>
   </sheetViews>
